--- a/data/processed/state_overviews/oklahoma_overview.xlsx
+++ b/data/processed/state_overviews/oklahoma_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>906</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adair County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Alfalfa County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Atoka County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Beckham County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Blaine County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Bryan County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>10</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Caddo County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Canadian County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Carter County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>23</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Cherokee County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>15</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Choctaw County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Cleveland County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>43</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Coal County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Comanche County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>22</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Craig County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>6</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Creek County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>6</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Custer County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>7</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Delaware County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>6</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Ellis County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Garfield County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>16</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Garvin County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>3</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Grady County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>8</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Harmon County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Harper County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Haskell County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>2</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Hughes County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>3</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>6</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Johnston County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>3</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Kay County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>12</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Kingfisher County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Kiowa County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>2</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Le Flore County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>4</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Logan County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>7</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Love County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>2</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Marshall County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>2</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Mayes County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>7</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>McClain County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>3</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>McCurtain County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>6</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>McIntosh County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>2</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Murray County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Muskogee County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>19</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Noble County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>1</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Nowata County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>3</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Okfuskee County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Oklahoma County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>267</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Okmulgee County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>4</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Osage County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>4</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Ottawa County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>6</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Pawnee County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>3</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Payne County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>20</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Pittsburg County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>10</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Pontotoc County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>18</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Pottawatomie County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>17</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Pushmataha County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>1</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Rogers County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>12</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Seminole County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>7</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Sequoyah County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>3</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Stephens County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>9</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Texas County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>5</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Tillman County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>2</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Tulsa County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>201</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Wagoner County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>2</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>18</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Woods County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>3</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Woodward County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>6</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,27 +2578,29 @@
           <t>Greer County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>0</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2474,27 +2610,29 @@
           <t>Cotton County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>0</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2504,27 +2642,29 @@
           <t>Washita County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>0</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2534,27 +2674,29 @@
           <t>Major County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>0</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2564,27 +2706,29 @@
           <t>Roger Mills County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>0</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2594,27 +2738,29 @@
           <t>Latimer County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>0</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2624,27 +2770,61 @@
           <t>Cimarron County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>0</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>$1,608,045,127</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.01%</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-20.07%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>72.63%</t>
         </is>
       </c>
     </row>
@@ -2699,8 +2879,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>209</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2729,8 +2911,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>153</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2759,8 +2943,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>148</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2789,8 +2975,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>140</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2819,8 +3007,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>256</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2849,8 +3039,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B7">
-        <v>906</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2924,8 +3116,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>260</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2954,8 +3148,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>274</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2984,8 +3180,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>166</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3014,8 +3212,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>68</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3044,8 +3244,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>92</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3074,8 +3276,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>46</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3104,8 +3308,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>906</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3179,8 +3385,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>69</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3209,8 +3417,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>82</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3239,8 +3449,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>23</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3269,8 +3481,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>70</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3299,8 +3513,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3329,8 +3545,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>314</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3359,8 +3577,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>10</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3389,8 +3609,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>59</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3419,8 +3641,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>25</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3449,8 +3673,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>234</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3479,8 +3705,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>12</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3509,8 +3737,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>906</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/oklahoma_overview.xlsx
+++ b/data/processed/state_overviews/oklahoma_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,123 +431,123 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adair County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$609,224</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.48%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-42.23%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alfalfa County</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>906</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$5,620,788</t>
+          <t>$1,608,045,127</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.52%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-15.07%</t>
+          <t>-20.07%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.63%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Atoka County</t>
+          <t>Adair County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$542,387</t>
+          <t>$609,224</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-4.79%</t>
+          <t>42.48%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-19.52%</t>
+          <t>-42.23%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -559,39 +559,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beckham County</t>
+          <t>Alfalfa County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$8,826,671</t>
+          <t>$5,620,788</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.10%</t>
+          <t>11.52%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.89%</t>
+          <t>-15.07%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Blaine County</t>
+          <t>Atoka County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,413 +601,413 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$24,006</t>
+          <t>$542,387</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>65.93%</t>
+          <t>-4.79%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>44.61%</t>
+          <t>-19.52%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bryan County</t>
+          <t>Beckham County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$26,365,212</t>
+          <t>$8,826,671</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>8.10%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-21.42%</t>
+          <t>-8.89%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Caddo County</t>
+          <t>Blaine County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$5,229,146</t>
+          <t>$24,006</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>65.93%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-57.70%</t>
+          <t>44.61%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Canadian County</t>
+          <t>Bryan County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$2,698,732</t>
+          <t>$26,365,212</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-6.28%</t>
+          <t>-21.42%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carter County</t>
+          <t>Caddo County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$19,046,492</t>
+          <t>$5,229,146</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.97%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-11.49%</t>
+          <t>-57.70%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cherokee County</t>
+          <t>Canadian County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$11,338,952</t>
+          <t>$2,698,732</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.05%</t>
+          <t>-0.07%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-42.48%</t>
+          <t>-6.28%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>86.67%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Choctaw County</t>
+          <t>Carter County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$15,456,968</t>
+          <t>$19,046,492</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>21.97%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-64.95%</t>
+          <t>-11.49%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>60.87%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cleveland County</t>
+          <t>Cherokee County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$20,638,751</t>
+          <t>$11,338,952</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>12.05%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-8.74%</t>
+          <t>-42.48%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.77%</t>
+          <t>86.67%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Coal County</t>
+          <t>Choctaw County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$397,392</t>
+          <t>$15,456,968</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-21.06%</t>
+          <t>-1.19%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-45.15%</t>
+          <t>-64.95%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Comanche County</t>
+          <t>Cleveland County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$9,591,448</t>
+          <t>$20,638,751</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-23.53%</t>
+          <t>-8.74%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>77.27%</t>
+          <t>69.77%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Craig County</t>
+          <t>Coal County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$972,492</t>
+          <t>$397,392</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-9.09%</t>
+          <t>-21.06%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-48.08%</t>
+          <t>-45.15%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Creek County</t>
+          <t>Comanche County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$1,772,093</t>
+          <t>$9,591,448</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.65%</t>
+          <t>2.60%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-52.29%</t>
+          <t>-23.53%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>77.27%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Custer County</t>
+          <t>Craig County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$2,090,018</t>
+          <t>$972,492</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16.72%</t>
+          <t>-9.09%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-3.46%</t>
+          <t>-48.08%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Delaware County</t>
+          <t>Creek County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$7,346,344</t>
+          <t>$1,772,093</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.11%</t>
+          <t>11.65%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-14.10%</t>
+          <t>-52.29%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1039,155 +1039,155 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ellis County</t>
+          <t>Custer County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$1,847,932</t>
+          <t>$2,090,018</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33.42%</t>
+          <t>16.72%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20.40%</t>
+          <t>-3.46%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Garfield County</t>
+          <t>Delaware County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$11,430,535</t>
+          <t>$7,346,344</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.29%</t>
+          <t>12.11%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-20.40%</t>
+          <t>-14.10%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Garvin County</t>
+          <t>Ellis County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$14,121,221</t>
+          <t>$1,847,932</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.89%</t>
+          <t>33.42%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-69.73%</t>
+          <t>20.40%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Grady County</t>
+          <t>Garfield County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$5,546,693</t>
+          <t>$11,430,535</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-4.89%</t>
+          <t>3.29%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-91.43%</t>
+          <t>-20.40%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Harmon County</t>
+          <t>Garvin County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$2,774,806</t>
+          <t>$14,121,221</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13.98%</t>
+          <t>10.89%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-72.13%</t>
+          <t>-69.73%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1199,27 +1199,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Harper County</t>
+          <t>Grady County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$45,372</t>
+          <t>$5,546,693</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>-4.89%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-3.69%</t>
+          <t>-91.43%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1231,27 +1231,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Haskell County</t>
+          <t>Harmon County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$41,873,113</t>
+          <t>$2,774,806</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>13.98%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-40.96%</t>
+          <t>-72.13%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1263,27 +1263,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hughes County</t>
+          <t>Harper County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$5,434,465</t>
+          <t>$45,372</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-3.26%</t>
+          <t>3.47%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-62.03%</t>
+          <t>-3.69%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1295,39 +1295,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Haskell County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$6,052,615</t>
+          <t>$41,873,113</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17.81%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-61.18%</t>
+          <t>-40.96%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Johnston County</t>
+          <t>Hughes County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$10,035,216</t>
+          <t>$5,434,465</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.65%</t>
+          <t>-3.26%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-58.08%</t>
+          <t>-62.03%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1359,59 +1359,59 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kay County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$3,297,491</t>
+          <t>$6,052,615</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.80%</t>
+          <t>17.81%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-25.54%</t>
+          <t>-61.18%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kingfisher County</t>
+          <t>Johnston County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$458,828</t>
+          <t>$10,035,216</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-2.88%</t>
+          <t>7.65%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-59.58%</t>
+          <t>-58.08%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1423,91 +1423,91 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kiowa County</t>
+          <t>Kay County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$6,154,897</t>
+          <t>$3,297,491</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>3.80%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-83.88%</t>
+          <t>-25.54%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Le Flore County</t>
+          <t>Kingfisher County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$1,626,395</t>
+          <t>$458,828</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.54%</t>
+          <t>-2.88%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-83.87%</t>
+          <t>-59.58%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Kiowa County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$88,674</t>
+          <t>$6,154,897</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-12.14%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-74.36%</t>
+          <t>-83.88%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1519,59 +1519,59 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Logan County</t>
+          <t>Le Flore County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$4,894,779</t>
+          <t>$1,626,395</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8.72%</t>
+          <t>5.54%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-77.12%</t>
+          <t>-83.87%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Love County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$70,509</t>
+          <t>$88,674</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9.12%</t>
+          <t>-12.14%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-59.28%</t>
+          <t>-74.36%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1583,59 +1583,59 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Marshall County</t>
+          <t>Logan County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$584,567</t>
+          <t>$4,894,779</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>41.41%</t>
+          <t>8.72%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-14.75%</t>
+          <t>-77.12%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mayes County</t>
+          <t>Love County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$815,215</t>
+          <t>$70,509</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-11.15%</t>
+          <t>9.12%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-54.39%</t>
+          <t>-59.28%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1647,91 +1647,91 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>McClain County</t>
+          <t>Marshall County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$2,095,458</t>
+          <t>$584,567</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>41.41%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-89.38%</t>
+          <t>-14.75%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>McCurtain County</t>
+          <t>Mayes County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$8,965,475</t>
+          <t>$815,215</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6.73%</t>
+          <t>-11.15%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-23.72%</t>
+          <t>-54.39%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>McIntosh County</t>
+          <t>McClain County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$872,425</t>
+          <t>$2,095,458</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-36.81%</t>
+          <t>-0.18%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-107.90%</t>
+          <t>-89.38%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1743,71 +1743,71 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Murray County</t>
+          <t>McCurtain County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$38,398</t>
+          <t>$8,965,475</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-21.87%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-31.08%</t>
+          <t>-23.72%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Muskogee County</t>
+          <t>McIntosh County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$18,021,075</t>
+          <t>$872,425</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-6.39%</t>
+          <t>-36.81%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-71.99%</t>
+          <t>-107.90%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>89.47%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Noble County</t>
+          <t>Murray County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1817,17 +1817,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$87,997</t>
+          <t>$38,398</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-11.68%</t>
+          <t>-21.87%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-22.32%</t>
+          <t>-31.08%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1839,39 +1839,39 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nowata County</t>
+          <t>Muskogee County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$23,251,785</t>
+          <t>$18,021,075</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.39%</t>
+          <t>-6.39%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-11.51%</t>
+          <t>-71.99%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>89.47%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Okfuskee County</t>
+          <t>Noble County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1881,17 +1881,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$204,757</t>
+          <t>$87,997</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17.55%</t>
+          <t>-11.68%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-54.68%</t>
+          <t>-22.32%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1903,59 +1903,59 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Oklahoma County</t>
+          <t>Nowata County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$763,884,174</t>
+          <t>$23,251,785</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.45%</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-13.30%</t>
+          <t>-11.51%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>71.54%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Okmulgee County</t>
+          <t>Okfuskee County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$4,279,317</t>
+          <t>$204,757</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3.42%</t>
+          <t>17.55%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-64.70%</t>
+          <t>-54.68%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1967,487 +1967,487 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Osage County</t>
+          <t>Oklahoma County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$4,967,295</t>
+          <t>$763,884,174</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12.68%</t>
+          <t>6.45%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-4.49%</t>
+          <t>-13.30%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>71.54%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ottawa County</t>
+          <t>Okmulgee County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$4,033,208</t>
+          <t>$4,279,317</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>3.42%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-44.26%</t>
+          <t>-64.70%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pawnee County</t>
+          <t>Osage County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$2,143,799</t>
+          <t>$4,967,295</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-20.91%</t>
+          <t>12.68%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-87.12%</t>
+          <t>-4.49%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Payne County</t>
+          <t>Ottawa County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$13,862,588</t>
+          <t>$4,033,208</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9.81%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-39.12%</t>
+          <t>-44.26%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>65.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pittsburg County</t>
+          <t>Pawnee County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$7,598,529</t>
+          <t>$2,143,799</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6.95%</t>
+          <t>-20.91%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-18.73%</t>
+          <t>-87.12%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pontotoc County</t>
+          <t>Payne County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$6,534,594</t>
+          <t>$13,862,588</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>9.81%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-52.01%</t>
+          <t>-39.12%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>65.00%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pottawatomie County</t>
+          <t>Pittsburg County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$19,408,929</t>
+          <t>$7,598,529</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3.73%</t>
+          <t>6.95%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-63.78%</t>
+          <t>-18.73%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>82.35%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pushmataha County</t>
+          <t>Pontotoc County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$3,563,283</t>
+          <t>$6,534,594</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>20.51%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-52.01%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rogers County</t>
+          <t>Pottawatomie County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$19,130,973</t>
+          <t>$19,408,929</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3.34%</t>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-73.09%</t>
+          <t>-63.78%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>82.35%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Seminole County</t>
+          <t>Pushmataha County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$9,033,554</t>
+          <t>$3,563,283</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6.23%</t>
+          <t>20.51%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-53.94%</t>
+          <t>-33.01%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sequoyah County</t>
+          <t>Rogers County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$2,802,828</t>
+          <t>$19,130,973</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>66.64%</t>
+          <t>3.34%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.27%</t>
+          <t>-73.09%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>91.67%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Stephens County</t>
+          <t>Seminole County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$8,339,619</t>
+          <t>$9,033,554</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>6.23%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-14.54%</t>
+          <t>-53.94%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Texas County</t>
+          <t>Sequoyah County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$4,099,583</t>
+          <t>$2,802,828</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>66.64%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-29.82%</t>
+          <t>1.27%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tillman County</t>
+          <t>Stephens County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$10,119,610</t>
+          <t>$8,339,619</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-60.34%</t>
+          <t>-14.54%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tulsa County</t>
+          <t>Texas County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$382,279,925</t>
+          <t>$4,099,583</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7.65%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-8.62%</t>
+          <t>-29.82%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>63.18%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Wagoner County</t>
+          <t>Tillman County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2457,17 +2457,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$2,188,812</t>
+          <t>$10,119,610</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.84%</t>
+          <t>2.60%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-59.06%</t>
+          <t>-60.34%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2479,352 +2479,160 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Tulsa County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$24,595,483</t>
+          <t>$382,279,925</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>7.65%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-8.02%</t>
+          <t>-8.62%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>63.18%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Woods County</t>
+          <t>Wagoner County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$63,443</t>
+          <t>$2,188,812</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>4.84%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-7.23%</t>
+          <t>-59.06%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Woodward County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$5,857,772</t>
+          <t>$24,595,483</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-90.80%</t>
+          <t>-8.02%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Greer County</t>
+          <t>Woods County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$63,443</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-7.23%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cotton County</t>
+          <t>Woodward County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$5,857,772</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-90.80%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Washita County</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Major County</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Roger Mills County</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Latimer County</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Cimarron County</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>$1,608,045,127</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>6.01%</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-20.07%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>72.63%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2643,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,224 +2652,256 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$386,240,830</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.65%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9.47%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>906</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$240,717,080</t>
+          <t>$1,608,045,127</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.24%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-44.04%</t>
+          <t>-20.07%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>81.05%</t>
+          <t>72.63%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$218,808,218</t>
+          <t>$386,240,830</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>7.65%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-25.14%</t>
+          <t>-9.47%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$129,341,159</t>
+          <t>$240,717,080</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>5.24%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-24.05%</t>
+          <t>-44.04%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.71%</t>
+          <t>81.05%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$632,937,840</t>
+          <t>$218,808,218</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.51%</t>
+          <t>4.81%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-14.13%</t>
+          <t>-25.14%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.88%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,608,045,127</t>
+          <t>$129,341,159</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.01%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-20.07%</t>
+          <t>-24.05%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72.63%</t>
+          <t>75.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5th Congressional district</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$632,937,840</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.51%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-14.13%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>71.88%</t>
         </is>
       </c>
     </row>
@@ -3086,34 +2926,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3145,128 +2985,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$264,875,965</t>
+          <t>$1,036,006,954</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.08%</t>
+          <t>5.97%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-18.57%</t>
+          <t>-10.91%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.36%</t>
+          <t>69.57%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>274</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$49,770,109</t>
+          <t>$264,875,965</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>5.08%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-23.72%</t>
+          <t>-18.57%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.30%</t>
+          <t>73.36%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$222,794,273</t>
+          <t>$49,770,109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.11%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-15.32%</t>
+          <t>-23.72%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>75.30%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,036,006,954</t>
+          <t>$222,794,273</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.97%</t>
+          <t>10.11%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.91%</t>
+          <t>-15.32%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.57%</t>
+          <t>64.71%</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3195,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3414,7 +3254,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3446,7 +3286,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3478,7 +3318,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3542,7 +3382,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3574,7 +3414,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3606,7 +3446,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3638,7 +3478,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3670,64 +3510,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$786,696,946</t>
+          <t>$70,548,249</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.13%</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-22.29%</t>
+          <t>-5.78%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>77.35%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$70,548,249</t>
+          <t>$786,696,946</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.75%</t>
+          <t>5.13%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-5.78%</t>
+          <t>-22.29%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>77.35%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/oklahoma_overview.xlsx
+++ b/data/processed/state_overviews/oklahoma_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>72.63%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>906</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,608,045,127</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>6.01%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-20.07%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.63%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.63%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>906</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,608,045,127</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.01%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-20.07%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.63%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$609,224</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>42.48%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-42.23%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$5,620,788</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>11.52%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-15.07%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$542,387</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-4.79%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-19.52%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$8,826,671</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.10%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-8.89%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$24,006</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>65.93%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>44.61%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$26,365,212</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>6.86%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-21.42%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$5,229,146</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>4.90%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-57.70%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$2,698,732</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-0.07%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-6.28%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$19,046,492</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>21.97%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-11.49%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>60.87%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>86.67%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$11,338,952</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>12.05%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-42.48%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>86.67%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$15,456,968</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-1.19%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-64.95%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>69.77%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$20,638,751</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>9.83%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-8.74%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>69.77%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$397,392</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>-21.06%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-45.15%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>77.27%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$9,591,448</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-23.53%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>77.27%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$972,492</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>-9.09%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-48.08%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$1,772,093</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>11.65%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-52.29%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$2,090,018</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>16.72%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-3.46%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$7,346,344</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>12.11%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-14.10%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$1,847,932</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>33.42%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>20.40%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$11,430,535</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>3.29%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-20.40%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$14,121,221</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>10.89%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-69.73%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$5,546,693</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>-4.89%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-91.43%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$2,774,806</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>13.98%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-72.13%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$45,372</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>3.47%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-3.69%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$41,873,113</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>11.27%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-40.96%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$5,434,465</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>-3.26%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-62.03%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$6,052,615</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>17.81%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-61.18%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$10,035,216</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>7.65%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-58.08%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$3,297,491</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>3.80%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-25.54%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$458,828</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>-2.88%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-59.58%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$6,154,897</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>6.20%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-83.88%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$1,626,395</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>5.54%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-83.87%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$88,674</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>-12.14%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-74.36%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$4,894,779</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>8.72%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-77.12%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$70,509</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>9.12%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-59.28%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$584,567</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>41.41%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-14.75%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$815,215</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>-11.15%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-54.39%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$2,095,458</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>-0.18%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-89.38%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$8,965,475</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>6.73%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-23.72%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$872,425</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>-36.81%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-107.90%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$38,398</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>-21.87%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-31.08%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>89.47%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$18,021,075</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>-6.39%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-71.99%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>89.47%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$87,997</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>-11.68%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-22.32%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$23,251,785</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>5.39%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-11.51%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$204,757</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>17.55%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-54.68%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>71.54%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>267</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$763,884,174</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>6.45%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-13.30%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>71.54%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$4,279,317</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>3.42%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-64.70%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$4,967,295</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>12.68%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-4.49%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$4,033,208</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>8.33%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-44.26%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$2,143,799</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>-20.91%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-87.12%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>65.00%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$13,862,588</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>9.81%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-39.12%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>65.00%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$7,598,529</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>6.95%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-18.73%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$6,534,594</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>4.44%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-52.01%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>82.35%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$19,408,929</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>3.73%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-63.78%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>82.35%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$3,563,283</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>20.51%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-33.01%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>91.67%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$19,130,973</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>3.34%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-73.09%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>91.67%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$9,033,554</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>6.23%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-53.94%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$2,802,828</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>66.64%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1.27%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$8,339,619</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2.71%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-14.54%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$4,099,583</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>0.63%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-29.82%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$10,119,610</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-60.34%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>63.18%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>201</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$382,279,925</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>7.65%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-8.62%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>63.18%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$2,188,812</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-59.06%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$24,595,483</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>8.01%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-8.02%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$63,443</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>0.25%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-7.23%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$5,857,772</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>0.40%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-90.80%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2657,27 +2657,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2689,27 +2689,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2721,187 +2721,187 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.63%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>906</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,608,045,127</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.01%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-20.07%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.63%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$386,240,830</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>7.65%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.47%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>81.05%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>153</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$240,717,080</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.24%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-44.04%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>81.05%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>148</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$218,808,218</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.81%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-25.14%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>75.71%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>140</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$129,341,159</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.92%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-24.05%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>75.71%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>71.88%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>256</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$632,937,840</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.51%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-14.13%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>71.88%</t>
         </is>
       </c>
     </row>
@@ -2926,187 +2926,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>75.77%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>260</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$29,869,633</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>4.50%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-26.84%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>75.77%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>73.36%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,036,006,954</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.97%</t>
+          <t>$264,875,965</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.91%</t>
+          <t>5.08%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69.57%</t>
+          <t>-18.57%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>75.30%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$264,875,965</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.08%</t>
+          <t>$49,770,109</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-18.57%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.36%</t>
+          <t>-23.72%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>64.71%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$49,770,109</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>$222,794,273</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-23.72%</t>
+          <t>10.11%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.30%</t>
+          <t>-15.32%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69.57%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$222,794,273</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.11%</t>
+          <t>$1,036,006,954</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-15.32%</t>
+          <t>5.97%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>-10.91%</t>
         </is>
       </c>
     </row>
@@ -3118,27 +3118,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>58.70%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$4,728,193</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>26.45%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-6.84%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>58.70%</t>
         </is>
       </c>
     </row>
@@ -3150,27 +3150,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>72.63%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>906</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,608,045,127</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>6.01%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-20.07%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>72.63%</t>
         </is>
       </c>
     </row>
@@ -3195,155 +3195,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>57.97%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$44,957,047</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>16.31%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-6.43%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>57.97%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>76.83%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>82</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$200,999,529</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-29.64%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>76.83%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$12,520,183</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>4.67%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-4.93%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>60.87%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>74.29%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$115,675,032</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.44%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-16.66%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>74.29%</t>
         </is>
       </c>
     </row>
@@ -3355,219 +3355,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$11,647,655</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>12.47%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.06%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>37.50%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>75.48%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>314</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$263,436,361</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.01%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-32.06%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>75.48%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,273,823</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.16%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-2.04%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>72.88%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$32,619,627</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>11.71%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-23.57%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>72.88%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>52.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$66,670,675</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>12.96%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-0.12%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>52.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>77.35%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$70,548,249</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.75%</t>
+          <t>$786,696,946</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-5.78%</t>
+          <t>5.13%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>-22.29%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>58.33%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$786,696,946</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.13%</t>
+          <t>$70,548,249</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-22.29%</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>77.35%</t>
+          <t>-5.78%</t>
         </is>
       </c>
     </row>
@@ -3579,27 +3579,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>72.63%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>906</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,608,045,127</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>6.01%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-20.07%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>72.63%</t>
         </is>
       </c>
     </row>
